--- a/data/pca/factorExposure/factorExposure_2011-09-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-09-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,21 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +726,57 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.01720566351802049</v>
+        <v>-0.01610241850985423</v>
       </c>
       <c r="C2">
-        <v>-0.02816454781692326</v>
+        <v>0.004056715033214692</v>
       </c>
       <c r="D2">
-        <v>-0.04360983264300132</v>
+        <v>-0.04521902712127179</v>
       </c>
       <c r="E2">
-        <v>0.05766703998762911</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.009544875989586596</v>
+      </c>
+      <c r="F2">
+        <v>-0.03703609753740438</v>
+      </c>
+      <c r="G2">
+        <v>0.01762643073332174</v>
+      </c>
+      <c r="H2">
+        <v>0.002893002990236837</v>
+      </c>
+      <c r="I2">
+        <v>0.01917294317678354</v>
+      </c>
+      <c r="J2">
+        <v>-0.06374425568534053</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +790,57 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.08287183238667417</v>
+        <v>-0.09606544849264585</v>
       </c>
       <c r="C4">
-        <v>0.005985781536505847</v>
+        <v>0.05246819727450266</v>
       </c>
       <c r="D4">
-        <v>-0.08316223897986171</v>
+        <v>-0.05486326142323507</v>
       </c>
       <c r="E4">
-        <v>0.03072522952766974</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02769797833978267</v>
+      </c>
+      <c r="F4">
+        <v>-0.06787830065638992</v>
+      </c>
+      <c r="G4">
+        <v>-0.02890237193906513</v>
+      </c>
+      <c r="H4">
+        <v>0.008275593322773216</v>
+      </c>
+      <c r="I4">
+        <v>-0.09358854480160735</v>
+      </c>
+      <c r="J4">
+        <v>0.03862967594656412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +854,377 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>-0.1189224499905419</v>
+        <v>-0.1298135346836703</v>
       </c>
       <c r="C6">
-        <v>-0.02851066873734758</v>
+        <v>0.003010365950282888</v>
       </c>
       <c r="D6">
-        <v>-0.02788411168687447</v>
+        <v>-0.04012356143071809</v>
       </c>
       <c r="E6">
-        <v>0.05609147896409727</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.02488224223860486</v>
+      </c>
+      <c r="F6">
+        <v>-0.03332529736574229</v>
+      </c>
+      <c r="G6">
+        <v>-0.04011595762945151</v>
+      </c>
+      <c r="H6">
+        <v>-0.1827768198661415</v>
+      </c>
+      <c r="I6">
+        <v>-0.005000381209183859</v>
+      </c>
+      <c r="J6">
+        <v>0.4460867049405633</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.06970305371693337</v>
+        <v>-0.07077245224026697</v>
       </c>
       <c r="C7">
-        <v>-0.02517046344965148</v>
+        <v>0.04496668366524842</v>
       </c>
       <c r="D7">
-        <v>-0.06263843514738446</v>
+        <v>-0.057358626143849</v>
       </c>
       <c r="E7">
-        <v>0.06044701080783992</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.007947729402974059</v>
+      </c>
+      <c r="F7">
+        <v>-0.05050306662110565</v>
+      </c>
+      <c r="G7">
+        <v>0.0113001383365769</v>
+      </c>
+      <c r="H7">
+        <v>0.01707070174260631</v>
+      </c>
+      <c r="I7">
+        <v>-0.03784431062919493</v>
+      </c>
+      <c r="J7">
+        <v>-0.06338155047050216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.03987397160257253</v>
+        <v>-0.04167816376182276</v>
       </c>
       <c r="C8">
-        <v>0.04354208530093102</v>
+        <v>0.03003238910652862</v>
       </c>
       <c r="D8">
-        <v>-0.04629432624395947</v>
+        <v>-0.001985848244385672</v>
       </c>
       <c r="E8">
-        <v>0.05212602388618919</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01506510315810486</v>
+      </c>
+      <c r="F8">
+        <v>-0.0805674301785642</v>
+      </c>
+      <c r="G8">
+        <v>-0.05274806836966052</v>
+      </c>
+      <c r="H8">
+        <v>-0.03167190666091515</v>
+      </c>
+      <c r="I8">
+        <v>-0.1161585094763761</v>
+      </c>
+      <c r="J8">
+        <v>0.01732625403955554</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.07552748939045138</v>
+        <v>-0.08485729393612497</v>
       </c>
       <c r="C9">
-        <v>0.01577353009934805</v>
+        <v>0.05288585223193756</v>
       </c>
       <c r="D9">
-        <v>-0.08037930415216271</v>
+        <v>-0.0459222464972105</v>
       </c>
       <c r="E9">
-        <v>0.02290011019576997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.02030177339596927</v>
+      </c>
+      <c r="F9">
+        <v>-0.05363935055552144</v>
+      </c>
+      <c r="G9">
+        <v>-0.046585442860653</v>
+      </c>
+      <c r="H9">
+        <v>0.007302094432103591</v>
+      </c>
+      <c r="I9">
+        <v>-0.09179160371402185</v>
+      </c>
+      <c r="J9">
+        <v>0.03738893320889902</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.02550504191164994</v>
+        <v>-0.06297076551695982</v>
       </c>
       <c r="C10">
-        <v>-0.121217281747805</v>
+        <v>-0.1995382723146673</v>
       </c>
       <c r="D10">
-        <v>0.1238369081950786</v>
+        <v>0.0001877362869261001</v>
       </c>
       <c r="E10">
-        <v>0.07638270985407454</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.007525797982691236</v>
+      </c>
+      <c r="F10">
+        <v>-0.05501646198373459</v>
+      </c>
+      <c r="G10">
+        <v>0.03852962201687146</v>
+      </c>
+      <c r="H10">
+        <v>-0.02189267679731706</v>
+      </c>
+      <c r="I10">
+        <v>0.06211466571387788</v>
+      </c>
+      <c r="J10">
+        <v>-0.01004558265969101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.0722346374611765</v>
+        <v>-0.07590674346400736</v>
       </c>
       <c r="C11">
-        <v>0.01279289274913414</v>
+        <v>0.05432061479350112</v>
       </c>
       <c r="D11">
-        <v>-0.06921580699926475</v>
+        <v>-0.03830755111696082</v>
       </c>
       <c r="E11">
-        <v>0.04132556514457404</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.008994070120472215</v>
+      </c>
+      <c r="F11">
+        <v>-0.03496526210495093</v>
+      </c>
+      <c r="G11">
+        <v>-0.06476766982770062</v>
+      </c>
+      <c r="H11">
+        <v>0.02527058407127713</v>
+      </c>
+      <c r="I11">
+        <v>-0.0706232000833126</v>
+      </c>
+      <c r="J11">
+        <v>-0.03065131414224839</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.06920430714364616</v>
+        <v>-0.07302076687958617</v>
       </c>
       <c r="C12">
-        <v>-0.009368228923745238</v>
+        <v>0.04174480498714348</v>
       </c>
       <c r="D12">
-        <v>-0.06859758693114848</v>
+        <v>-0.04767757267335593</v>
       </c>
       <c r="E12">
-        <v>0.02718551426103358</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.007965105615539056</v>
+      </c>
+      <c r="F12">
+        <v>-0.02816538250544946</v>
+      </c>
+      <c r="G12">
+        <v>-0.03783848548023933</v>
+      </c>
+      <c r="H12">
+        <v>-0.005590699150291658</v>
+      </c>
+      <c r="I12">
+        <v>-0.08798938718550824</v>
+      </c>
+      <c r="J12">
+        <v>-0.03748500564114228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.07478952570995345</v>
+        <v>-0.06811827374997612</v>
       </c>
       <c r="C13">
-        <v>0.004811380002677165</v>
+        <v>0.03786818741455741</v>
       </c>
       <c r="D13">
-        <v>-0.06274299471575198</v>
+        <v>-0.02369772072388281</v>
       </c>
       <c r="E13">
-        <v>0.01048914699210223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.0379116062739594</v>
+      </c>
+      <c r="F13">
+        <v>-0.03532226563307397</v>
+      </c>
+      <c r="G13">
+        <v>-0.02231342090546945</v>
+      </c>
+      <c r="H13">
+        <v>0.01140511800730978</v>
+      </c>
+      <c r="I13">
+        <v>-0.0952653496137475</v>
+      </c>
+      <c r="J13">
+        <v>-0.04988361959897389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.02963101392527764</v>
+        <v>-0.04143566982816557</v>
       </c>
       <c r="C14">
-        <v>-0.02228113352124174</v>
+        <v>0.007508129875699896</v>
       </c>
       <c r="D14">
-        <v>-0.02967208040710326</v>
+        <v>-0.04293110339820409</v>
       </c>
       <c r="E14">
-        <v>0.006524099103437133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.01230375861927183</v>
+      </c>
+      <c r="F14">
+        <v>-0.02017663773162203</v>
+      </c>
+      <c r="G14">
+        <v>-0.04326159491165275</v>
+      </c>
+      <c r="H14">
+        <v>0.05122597362304931</v>
+      </c>
+      <c r="I14">
+        <v>-0.06862512185861053</v>
+      </c>
+      <c r="J14">
+        <v>0.0341868634975707</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.0514453471205098</v>
+        <v>-0.04361195943395756</v>
       </c>
       <c r="C15">
-        <v>0.006948117813497017</v>
+        <v>0.01752066976959886</v>
       </c>
       <c r="D15">
-        <v>-0.02436747531384876</v>
+        <v>-0.002958365859283822</v>
       </c>
       <c r="E15">
-        <v>0.0006265839601528991</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.04207199150380042</v>
+      </c>
+      <c r="F15">
+        <v>-0.01693672644003191</v>
+      </c>
+      <c r="G15">
+        <v>-0.02862323806087231</v>
+      </c>
+      <c r="H15">
+        <v>0.01492929851043296</v>
+      </c>
+      <c r="I15">
+        <v>-0.03048402012213276</v>
+      </c>
+      <c r="J15">
+        <v>0.0269763495166565</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.06311874860172702</v>
+        <v>-0.07430121252132246</v>
       </c>
       <c r="C16">
-        <v>0.006742464338780109</v>
+        <v>0.05307105719517166</v>
       </c>
       <c r="D16">
-        <v>-0.07292070738315169</v>
+        <v>-0.04882107001855428</v>
       </c>
       <c r="E16">
-        <v>0.0306817316231849</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.006468253368086487</v>
+      </c>
+      <c r="F16">
+        <v>-0.03380670717788044</v>
+      </c>
+      <c r="G16">
+        <v>-0.03555642493784102</v>
+      </c>
+      <c r="H16">
+        <v>0.01813649380475205</v>
+      </c>
+      <c r="I16">
+        <v>-0.04497930232411618</v>
+      </c>
+      <c r="J16">
+        <v>-0.02132944850150558</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1238,25 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,10 +1270,25 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1302,249 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.06523471803275721</v>
+        <v>-0.0624476833251667</v>
       </c>
       <c r="C20">
-        <v>0.01304564444807036</v>
+        <v>0.03775241002551359</v>
       </c>
       <c r="D20">
-        <v>-0.05908690646979341</v>
+        <v>-0.02366455683672277</v>
       </c>
       <c r="E20">
-        <v>0.02605522493334212</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.0003996386636478221</v>
+      </c>
+      <c r="F20">
+        <v>-0.03090014809846978</v>
+      </c>
+      <c r="G20">
+        <v>-0.02919326193717648</v>
+      </c>
+      <c r="H20">
+        <v>0.02953172961397983</v>
+      </c>
+      <c r="I20">
+        <v>-0.1109737384667286</v>
+      </c>
+      <c r="J20">
+        <v>-0.02131092326801737</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.03798934422089317</v>
+        <v>-0.03186727192094541</v>
       </c>
       <c r="C21">
-        <v>0.007718550297057916</v>
+        <v>0.02102911488029225</v>
       </c>
       <c r="D21">
-        <v>-0.01431134492118271</v>
+        <v>-0.001347821334731126</v>
       </c>
       <c r="E21">
-        <v>-0.0006215190100731661</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03530833265269612</v>
+      </c>
+      <c r="F21">
+        <v>-0.003325933101627475</v>
+      </c>
+      <c r="G21">
+        <v>-0.00403412749776553</v>
+      </c>
+      <c r="H21">
+        <v>-0.07493517363240725</v>
+      </c>
+      <c r="I21">
+        <v>-0.02577277907612863</v>
+      </c>
+      <c r="J21">
+        <v>0.01542162404774167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>-0.1014940221070096</v>
+        <v>-0.08807305122701663</v>
       </c>
       <c r="C22">
-        <v>0.04136090522477464</v>
+        <v>0.06167144484788953</v>
       </c>
       <c r="D22">
-        <v>-0.1042176929058327</v>
+        <v>0.002769180572386959</v>
       </c>
       <c r="E22">
-        <v>0.006063023346828665</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.4885427607070391</v>
+      </c>
+      <c r="F22">
+        <v>-0.2323401713018348</v>
+      </c>
+      <c r="G22">
+        <v>0.3227086949238415</v>
+      </c>
+      <c r="H22">
+        <v>-0.04104867446532878</v>
+      </c>
+      <c r="I22">
+        <v>0.2322651372355829</v>
+      </c>
+      <c r="J22">
+        <v>-0.02069599572092643</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>-0.1023404525049433</v>
+        <v>-0.08897550536648044</v>
       </c>
       <c r="C23">
-        <v>0.04048657710289133</v>
+        <v>0.06208787025754424</v>
       </c>
       <c r="D23">
-        <v>-0.1050406411537864</v>
+        <v>0.001452298123340682</v>
       </c>
       <c r="E23">
-        <v>0.007396925634922715</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.4913941298398211</v>
+      </c>
+      <c r="F23">
+        <v>-0.2352803480768939</v>
+      </c>
+      <c r="G23">
+        <v>0.3175001792786834</v>
+      </c>
+      <c r="H23">
+        <v>-0.03995527440387098</v>
+      </c>
+      <c r="I23">
+        <v>0.2346246570712705</v>
+      </c>
+      <c r="J23">
+        <v>-0.01497219403599587</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.08114848241403301</v>
+        <v>-0.08365652896611689</v>
       </c>
       <c r="C24">
-        <v>0.005521649314058772</v>
+        <v>0.05199112154915971</v>
       </c>
       <c r="D24">
-        <v>-0.07487223923255505</v>
+        <v>-0.0442472368841282</v>
       </c>
       <c r="E24">
-        <v>0.04317678602184193</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.008042875340637762</v>
+      </c>
+      <c r="F24">
+        <v>-0.04415068645094256</v>
+      </c>
+      <c r="G24">
+        <v>-0.05421308931094136</v>
+      </c>
+      <c r="H24">
+        <v>-0.0002329778993256051</v>
+      </c>
+      <c r="I24">
+        <v>-0.06103470612388652</v>
+      </c>
+      <c r="J24">
+        <v>-0.01188638250117528</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.07815596422714312</v>
+        <v>-0.07806253055682155</v>
       </c>
       <c r="C25">
-        <v>0.002191994420179815</v>
+        <v>0.04497376411784346</v>
       </c>
       <c r="D25">
-        <v>-0.07606240509850327</v>
+        <v>-0.04516897688756624</v>
       </c>
       <c r="E25">
-        <v>0.04551702765944402</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.01334726389028682</v>
+      </c>
+      <c r="F25">
+        <v>-0.03961618458628934</v>
+      </c>
+      <c r="G25">
+        <v>-0.05375498904275101</v>
+      </c>
+      <c r="H25">
+        <v>0.01001414487149572</v>
+      </c>
+      <c r="I25">
+        <v>-0.07964026188193984</v>
+      </c>
+      <c r="J25">
+        <v>-0.01493434076466536</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.04972193825605794</v>
+        <v>-0.04584676864920418</v>
       </c>
       <c r="C26">
-        <v>0.01538128178418229</v>
+        <v>0.02285981439828332</v>
       </c>
       <c r="D26">
-        <v>-0.0139167664491061</v>
+        <v>0.01117850132405176</v>
       </c>
       <c r="E26">
-        <v>0.03270369721392834</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.02385027170775421</v>
+      </c>
+      <c r="F26">
+        <v>-0.03014072431533229</v>
+      </c>
+      <c r="G26">
+        <v>-0.0231047352759446</v>
+      </c>
+      <c r="H26">
+        <v>0.02365096733244438</v>
+      </c>
+      <c r="I26">
+        <v>-0.009250968105915355</v>
+      </c>
+      <c r="J26">
+        <v>0.009849929266654676</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1558,313 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.04610717112300713</v>
+        <v>-0.07708001989452923</v>
       </c>
       <c r="C28">
-        <v>-0.2029338841809774</v>
+        <v>-0.2948713602646426</v>
       </c>
       <c r="D28">
-        <v>0.2067778056922128</v>
+        <v>0.02452873463974433</v>
       </c>
       <c r="E28">
-        <v>0.08029201852575046</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.002715553868330005</v>
+      </c>
+      <c r="F28">
+        <v>-0.04174477656641445</v>
+      </c>
+      <c r="G28">
+        <v>-0.02858775217547362</v>
+      </c>
+      <c r="H28">
+        <v>-0.04346086182313777</v>
+      </c>
+      <c r="I28">
+        <v>0.02783818639308699</v>
+      </c>
+      <c r="J28">
+        <v>-0.005249727354513542</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.05292633179579099</v>
+        <v>-0.05371106843323084</v>
       </c>
       <c r="C29">
-        <v>-0.03338394354635838</v>
+        <v>0.006334062871882443</v>
       </c>
       <c r="D29">
-        <v>-0.03132604086215492</v>
+        <v>-0.04109870862327511</v>
       </c>
       <c r="E29">
-        <v>0.0244402942092439</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.01830223658979575</v>
+      </c>
+      <c r="F29">
+        <v>-0.0340381786266911</v>
+      </c>
+      <c r="G29">
+        <v>-0.03068051337377912</v>
+      </c>
+      <c r="H29">
+        <v>0.06514834754819296</v>
+      </c>
+      <c r="I29">
+        <v>-0.04621657169188809</v>
+      </c>
+      <c r="J29">
+        <v>0.01051198237110898</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1457059030109153</v>
+        <v>-0.1309139430110068</v>
       </c>
       <c r="C30">
-        <v>-0.00166771510638022</v>
+        <v>0.05390446464068882</v>
       </c>
       <c r="D30">
-        <v>-0.1143185361851302</v>
+        <v>-0.05953105519324098</v>
       </c>
       <c r="E30">
-        <v>0.04133460871919561</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.06064106775255997</v>
+      </c>
+      <c r="F30">
+        <v>-0.09568881922934673</v>
+      </c>
+      <c r="G30">
+        <v>-0.05094309488755902</v>
+      </c>
+      <c r="H30">
+        <v>-0.07789570828759861</v>
+      </c>
+      <c r="I30">
+        <v>-0.3206996066351874</v>
+      </c>
+      <c r="J30">
+        <v>-0.1074675847120398</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.05152132982280001</v>
+        <v>-0.04602795764330979</v>
       </c>
       <c r="C31">
-        <v>-0.01444522037721811</v>
+        <v>0.03346821270788652</v>
       </c>
       <c r="D31">
-        <v>-0.04265037634165557</v>
+        <v>-0.03185998477553337</v>
       </c>
       <c r="E31">
-        <v>0.00934509391951863</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.01950902415365892</v>
+      </c>
+      <c r="F31">
+        <v>-0.01106122553116377</v>
+      </c>
+      <c r="G31">
+        <v>-0.008153475302987261</v>
+      </c>
+      <c r="H31">
+        <v>0.05560767530924061</v>
+      </c>
+      <c r="I31">
+        <v>-0.03916805692321151</v>
+      </c>
+      <c r="J31">
+        <v>0.01914322446572011</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.0506858111794526</v>
+        <v>-0.05085501048486293</v>
       </c>
       <c r="C32">
-        <v>0.01933996487404188</v>
+        <v>0.003105094142909473</v>
       </c>
       <c r="D32">
-        <v>-0.01431732266660912</v>
+        <v>0.01369932339810079</v>
       </c>
       <c r="E32">
-        <v>-0.002763105945266486</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.0748612554757675</v>
+      </c>
+      <c r="F32">
+        <v>-0.03127563680842172</v>
+      </c>
+      <c r="G32">
+        <v>-0.002047441044788398</v>
+      </c>
+      <c r="H32">
+        <v>0.00102035141750975</v>
+      </c>
+      <c r="I32">
+        <v>0.01472567898914106</v>
+      </c>
+      <c r="J32">
+        <v>-0.05403404192175045</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.1000299066517447</v>
+        <v>-0.1010144509246964</v>
       </c>
       <c r="C33">
-        <v>0.001667455142491943</v>
+        <v>0.04790717285114534</v>
       </c>
       <c r="D33">
-        <v>-0.0574469628914084</v>
+        <v>-0.02639806032368395</v>
       </c>
       <c r="E33">
-        <v>0.01279819750798606</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02637678732114847</v>
+      </c>
+      <c r="F33">
+        <v>-0.01255339007411338</v>
+      </c>
+      <c r="G33">
+        <v>-0.01548096030592631</v>
+      </c>
+      <c r="H33">
+        <v>0.03346311374035339</v>
+      </c>
+      <c r="I33">
+        <v>-0.07846684311071898</v>
+      </c>
+      <c r="J33">
+        <v>0.01273439509134611</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.06344597745201305</v>
+        <v>-0.07050748477821493</v>
       </c>
       <c r="C34">
-        <v>0.01921555858689991</v>
+        <v>0.04560698325283167</v>
       </c>
       <c r="D34">
-        <v>-0.06332357450006741</v>
+        <v>-0.02963970472762455</v>
       </c>
       <c r="E34">
-        <v>0.02062509338725356</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.00605085497482004</v>
+      </c>
+      <c r="F34">
+        <v>-0.02502739938300907</v>
+      </c>
+      <c r="G34">
+        <v>-0.03712380929493092</v>
+      </c>
+      <c r="H34">
+        <v>0.02305576872705808</v>
+      </c>
+      <c r="I34">
+        <v>-0.05135022349462119</v>
+      </c>
+      <c r="J34">
+        <v>0.001382442347024547</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>-0.03761968442463724</v>
+        <v>-0.03658739104432661</v>
       </c>
       <c r="C35">
-        <v>-0.01266885310250288</v>
+        <v>0.01568605770260359</v>
       </c>
       <c r="D35">
-        <v>-0.03231383739219562</v>
+        <v>-0.02894460164263499</v>
       </c>
       <c r="E35">
-        <v>-0.009422829456336127</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.01880218544405115</v>
+      </c>
+      <c r="F35">
+        <v>0.009577126123409061</v>
+      </c>
+      <c r="G35">
+        <v>-0.01129356798945601</v>
+      </c>
+      <c r="H35">
+        <v>0.02183360778239261</v>
+      </c>
+      <c r="I35">
+        <v>-0.04769554037091257</v>
+      </c>
+      <c r="J35">
+        <v>-0.0125751034088338</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.03551433567133071</v>
+        <v>-0.03269635223170077</v>
       </c>
       <c r="C36">
-        <v>0.006369748667450837</v>
+        <v>0.01586422013920788</v>
       </c>
       <c r="D36">
-        <v>-0.02472468630930716</v>
+        <v>-0.006806329764189052</v>
       </c>
       <c r="E36">
-        <v>0.03052574853489359</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.02094279695730408</v>
+      </c>
+      <c r="F36">
+        <v>-0.04011502627851372</v>
+      </c>
+      <c r="G36">
+        <v>-0.02307140420589452</v>
+      </c>
+      <c r="H36">
+        <v>0.01695313192086637</v>
+      </c>
+      <c r="I36">
+        <v>-0.06152889311908775</v>
+      </c>
+      <c r="J36">
+        <v>0.002198554059759472</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1878,153 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.0659016255843502</v>
+        <v>-0.0553780756811084</v>
       </c>
       <c r="C38">
-        <v>0.0112573898895568</v>
+        <v>0.02577227872212579</v>
       </c>
       <c r="D38">
-        <v>0.0101529471046771</v>
+        <v>0.02574907347118193</v>
       </c>
       <c r="E38">
-        <v>-0.02073360091527742</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.01501215142469671</v>
+      </c>
+      <c r="F38">
+        <v>-0.009691242572162201</v>
+      </c>
+      <c r="G38">
+        <v>0.005813846184900307</v>
+      </c>
+      <c r="H38">
+        <v>0.01726730757862705</v>
+      </c>
+      <c r="I38">
+        <v>0.01524172247466062</v>
+      </c>
+      <c r="J38">
+        <v>-0.02576707803260587</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.08862205771655696</v>
+        <v>-0.09691278773092911</v>
       </c>
       <c r="C39">
-        <v>-0.01279215897030599</v>
+        <v>0.04288713012560982</v>
       </c>
       <c r="D39">
-        <v>-0.07041422521716799</v>
+        <v>-0.05707111497008696</v>
       </c>
       <c r="E39">
-        <v>0.002798222127901647</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.01709400936682915</v>
+      </c>
+      <c r="F39">
+        <v>-0.03040531663348056</v>
+      </c>
+      <c r="G39">
+        <v>-0.04114748681683528</v>
+      </c>
+      <c r="H39">
+        <v>-0.000403142354188073</v>
+      </c>
+      <c r="I39">
+        <v>-0.06746203087600923</v>
+      </c>
+      <c r="J39">
+        <v>-0.1280594514222479</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.07391143688195483</v>
+        <v>-0.05264640837991116</v>
       </c>
       <c r="C40">
-        <v>-0.00505765775250676</v>
+        <v>0.04196977139960437</v>
       </c>
       <c r="D40">
-        <v>-0.03498285213256151</v>
+        <v>0.0005456558414486435</v>
       </c>
       <c r="E40">
-        <v>-0.002926436552012045</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.06884429886794251</v>
+      </c>
+      <c r="F40">
+        <v>-0.0180399149629165</v>
+      </c>
+      <c r="G40">
+        <v>-0.04649556620662804</v>
+      </c>
+      <c r="H40">
+        <v>-0.08356738859311892</v>
+      </c>
+      <c r="I40">
+        <v>-0.1657878666195411</v>
+      </c>
+      <c r="J40">
+        <v>-0.2316182377743966</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.05955212210717146</v>
+        <v>-0.0488106732989267</v>
       </c>
       <c r="C41">
-        <v>0.01777287414096058</v>
+        <v>0.0384335191569502</v>
       </c>
       <c r="D41">
-        <v>-0.02803054582349843</v>
+        <v>0.003171970246969777</v>
       </c>
       <c r="E41">
-        <v>-0.02562695702339207</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.004603895491481162</v>
+      </c>
+      <c r="F41">
+        <v>0.01674555902637731</v>
+      </c>
+      <c r="G41">
+        <v>-0.025704965926798</v>
+      </c>
+      <c r="H41">
+        <v>0.02910959748001099</v>
+      </c>
+      <c r="I41">
+        <v>-0.02587496772767413</v>
+      </c>
+      <c r="J41">
+        <v>-0.04574006170074545</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +2038,89 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.06054356048983189</v>
+        <v>-0.06198109399134066</v>
       </c>
       <c r="C43">
-        <v>-0.0101179229528104</v>
+        <v>0.03187966777560677</v>
       </c>
       <c r="D43">
-        <v>-0.02946998357948842</v>
+        <v>-0.02373989953239496</v>
       </c>
       <c r="E43">
-        <v>0.01529078412785923</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.003001880926989223</v>
+      </c>
+      <c r="F43">
+        <v>-0.01733525852802831</v>
+      </c>
+      <c r="G43">
+        <v>0.001155725099738415</v>
+      </c>
+      <c r="H43">
+        <v>0.05227674292170364</v>
+      </c>
+      <c r="I43">
+        <v>-0.01860742746385767</v>
+      </c>
+      <c r="J43">
+        <v>-0.01660719317232707</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.09193986604692411</v>
+        <v>-0.09499681402121075</v>
       </c>
       <c r="C44">
-        <v>0.0180603149998165</v>
+        <v>0.05270093935349337</v>
       </c>
       <c r="D44">
-        <v>-0.06469418280917678</v>
+        <v>-0.02718996153225403</v>
       </c>
       <c r="E44">
-        <v>0.07387045794228508</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.04680191903366079</v>
+      </c>
+      <c r="F44">
+        <v>-0.1296433377178549</v>
+      </c>
+      <c r="G44">
+        <v>-0.07298977933065737</v>
+      </c>
+      <c r="H44">
+        <v>0.02727342996831264</v>
+      </c>
+      <c r="I44">
+        <v>-0.1247898235401048</v>
+      </c>
+      <c r="J44">
+        <v>-0.06529268756716611</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +2134,217 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.03132194018758774</v>
+        <v>-0.04462934284336242</v>
       </c>
       <c r="C46">
-        <v>0.001796750543540728</v>
+        <v>0.02870287893524544</v>
       </c>
       <c r="D46">
-        <v>-0.03946809077976973</v>
+        <v>-0.03351005694388259</v>
       </c>
       <c r="E46">
-        <v>0.01789820355907046</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.02140117084707781</v>
+      </c>
+      <c r="F46">
+        <v>-0.03567407506967189</v>
+      </c>
+      <c r="G46">
+        <v>-0.002842265554412397</v>
+      </c>
+      <c r="H46">
+        <v>0.01303650543650819</v>
+      </c>
+      <c r="I46">
+        <v>-0.02052135263004531</v>
+      </c>
+      <c r="J46">
+        <v>0.02989971777749989</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.03850941152428077</v>
+        <v>-0.04755103584632252</v>
       </c>
       <c r="C47">
-        <v>-0.02093040109132472</v>
+        <v>0.004036368273412573</v>
       </c>
       <c r="D47">
-        <v>-0.009974902471180188</v>
+        <v>-0.02150561855623204</v>
       </c>
       <c r="E47">
-        <v>0.0141280640482339</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.03655142394721941</v>
+      </c>
+      <c r="F47">
+        <v>-0.01263671166218886</v>
+      </c>
+      <c r="G47">
+        <v>0.01690752644151704</v>
+      </c>
+      <c r="H47">
+        <v>0.01862470887395886</v>
+      </c>
+      <c r="I47">
+        <v>-0.03321113170255437</v>
+      </c>
+      <c r="J47">
+        <v>0.03012064651864949</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.04609929247474984</v>
+        <v>-0.04321567432806296</v>
       </c>
       <c r="C48">
-        <v>0.00288367135401905</v>
+        <v>0.01677556368966673</v>
       </c>
       <c r="D48">
-        <v>-0.03689276646238907</v>
+        <v>-0.009768427332249613</v>
       </c>
       <c r="E48">
-        <v>0.02442117795248451</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.04418697333274862</v>
+      </c>
+      <c r="F48">
+        <v>-0.02713319509087955</v>
+      </c>
+      <c r="G48">
+        <v>-0.01053674723244372</v>
+      </c>
+      <c r="H48">
+        <v>0.001646423600864525</v>
+      </c>
+      <c r="I48">
+        <v>-0.04864161166098762</v>
+      </c>
+      <c r="J48">
+        <v>0.005119092906429935</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>-0.1498351870859793</v>
+        <v>-0.200651875084992</v>
       </c>
       <c r="C49">
-        <v>-0.05167576557692766</v>
+        <v>0.003178325684123143</v>
       </c>
       <c r="D49">
-        <v>-0.04569602824506304</v>
+        <v>-0.08641317693791117</v>
       </c>
       <c r="E49">
-        <v>0.01259315826407733</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.173071503149472</v>
+      </c>
+      <c r="F49">
+        <v>0.06986962911000059</v>
+      </c>
+      <c r="G49">
+        <v>0.129109575831059</v>
+      </c>
+      <c r="H49">
+        <v>-0.1700162007097382</v>
+      </c>
+      <c r="I49">
+        <v>0.08003494853959382</v>
+      </c>
+      <c r="J49">
+        <v>0.02102419367181713</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.05527311610129155</v>
+        <v>-0.05257260903863047</v>
       </c>
       <c r="C50">
-        <v>-0.01295997254352173</v>
+        <v>0.02908465745225901</v>
       </c>
       <c r="D50">
-        <v>-0.05111697337865873</v>
+        <v>-0.03741671154015282</v>
       </c>
       <c r="E50">
-        <v>0.0117946470503053</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.02978846771371436</v>
+      </c>
+      <c r="F50">
+        <v>-0.01268071295665986</v>
+      </c>
+      <c r="G50">
+        <v>-0.02127638862348603</v>
+      </c>
+      <c r="H50">
+        <v>0.06490361358099014</v>
+      </c>
+      <c r="I50">
+        <v>-0.0340395980193483</v>
+      </c>
+      <c r="J50">
+        <v>0.03525014458769265</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.0317574301934599</v>
+        <v>-0.03927947719525962</v>
       </c>
       <c r="C51">
-        <v>-0.00982378065654364</v>
+        <v>-0.004786216664683398</v>
       </c>
       <c r="D51">
-        <v>0.001808424550900235</v>
+        <v>0.001680454206807713</v>
       </c>
       <c r="E51">
-        <v>0.001661872128729207</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01262147648822351</v>
+      </c>
+      <c r="F51">
+        <v>-0.01007626076095942</v>
+      </c>
+      <c r="G51">
+        <v>0.02191773959774335</v>
+      </c>
+      <c r="H51">
+        <v>-0.01504459920338565</v>
+      </c>
+      <c r="I51">
+        <v>0.007355974247692041</v>
+      </c>
+      <c r="J51">
+        <v>-0.04191068095772723</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2358,153 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1560728109024753</v>
+        <v>-0.1581663958352105</v>
       </c>
       <c r="C53">
-        <v>-0.0588712917429258</v>
+        <v>0.009617518244595074</v>
       </c>
       <c r="D53">
-        <v>-0.01952638667775838</v>
+        <v>-0.04335068023907669</v>
       </c>
       <c r="E53">
-        <v>0.01220178114948726</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03810750192066294</v>
+      </c>
+      <c r="F53">
+        <v>0.02253976477851526</v>
+      </c>
+      <c r="G53">
+        <v>0.009651136397368703</v>
+      </c>
+      <c r="H53">
+        <v>0.2399687843345521</v>
+      </c>
+      <c r="I53">
+        <v>0.05757101904993567</v>
+      </c>
+      <c r="J53">
+        <v>0.04063344583129549</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.06634291125241419</v>
+        <v>-0.06471264175431328</v>
       </c>
       <c r="C54">
-        <v>0.00711283139837555</v>
+        <v>0.01205851468698553</v>
       </c>
       <c r="D54">
-        <v>-0.02083625111349794</v>
+        <v>-0.007281536317801535</v>
       </c>
       <c r="E54">
-        <v>0.03300871178829029</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.05333447220665412</v>
+      </c>
+      <c r="F54">
+        <v>-0.05413876208179037</v>
+      </c>
+      <c r="G54">
+        <v>-0.05324435214648032</v>
+      </c>
+      <c r="H54">
+        <v>0.01791951842953073</v>
+      </c>
+      <c r="I54">
+        <v>-0.1441044796499541</v>
+      </c>
+      <c r="J54">
+        <v>0.01688194917694702</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.0963066226098258</v>
+        <v>-0.09797836260453593</v>
       </c>
       <c r="C55">
-        <v>-0.02739768624672835</v>
+        <v>0.02087111741127813</v>
       </c>
       <c r="D55">
-        <v>-0.02888698164772931</v>
+        <v>-0.03143155490149725</v>
       </c>
       <c r="E55">
-        <v>0.02728350195108547</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.01338433554568889</v>
+      </c>
+      <c r="F55">
+        <v>-0.01641390648374215</v>
+      </c>
+      <c r="G55">
+        <v>-0.03195825060881051</v>
+      </c>
+      <c r="H55">
+        <v>0.1716443920459714</v>
+      </c>
+      <c r="I55">
+        <v>0.006945693007146548</v>
+      </c>
+      <c r="J55">
+        <v>0.03383426920763721</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1466454300089916</v>
+        <v>-0.1508045320941849</v>
       </c>
       <c r="C56">
-        <v>-0.06931023852808704</v>
+        <v>0.02553545541396298</v>
       </c>
       <c r="D56">
-        <v>-0.03891848443809592</v>
+        <v>-0.06199953408952897</v>
       </c>
       <c r="E56">
-        <v>0.05568675422403777</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.02927816841599477</v>
+      </c>
+      <c r="F56">
+        <v>-0.001384047136860864</v>
+      </c>
+      <c r="G56">
+        <v>-0.01630520700455956</v>
+      </c>
+      <c r="H56">
+        <v>0.2300714978252894</v>
+      </c>
+      <c r="I56">
+        <v>0.08433615264192043</v>
+      </c>
+      <c r="J56">
+        <v>0.003862295449316402</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,656 +2518,1241 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.1187321290304184</v>
+        <v>-0.08374413567587174</v>
       </c>
       <c r="C58">
-        <v>0.08182336119278756</v>
+        <v>0.0542956607711507</v>
       </c>
       <c r="D58">
-        <v>-0.01321670218347192</v>
+        <v>0.08834131078498507</v>
       </c>
       <c r="E58">
-        <v>0.1198309523581274</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.08219392311396326</v>
+      </c>
+      <c r="F58">
+        <v>-0.09839278595749507</v>
+      </c>
+      <c r="G58">
+        <v>0.1058711252520747</v>
+      </c>
+      <c r="H58">
+        <v>-0.2500094937517719</v>
+      </c>
+      <c r="I58">
+        <v>-0.4380457444327363</v>
+      </c>
+      <c r="J58">
+        <v>-0.1024747075250609</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.1289747197882702</v>
+        <v>-0.161944668030448</v>
       </c>
       <c r="C59">
-        <v>-0.3084808620148984</v>
+        <v>-0.364724932919553</v>
       </c>
       <c r="D59">
-        <v>0.3174410276721226</v>
+        <v>0.04059868304253336</v>
       </c>
       <c r="E59">
-        <v>0.05918049171713653</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.004306791574446282</v>
+      </c>
+      <c r="F59">
+        <v>-0.005703828048145285</v>
+      </c>
+      <c r="G59">
+        <v>-0.01099312083595934</v>
+      </c>
+      <c r="H59">
+        <v>0.03955993675685899</v>
+      </c>
+      <c r="I59">
+        <v>0.03667833139025675</v>
+      </c>
+      <c r="J59">
+        <v>-0.07222543696184171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.2134333856169489</v>
+        <v>-0.2429397470423689</v>
       </c>
       <c r="C60">
-        <v>-0.07029636427869854</v>
+        <v>0.02283971565347231</v>
       </c>
       <c r="D60">
-        <v>-0.03772812778349733</v>
+        <v>-0.07256344022433232</v>
       </c>
       <c r="E60">
-        <v>0.04812532415441792</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.1298235376395981</v>
+      </c>
+      <c r="F60">
+        <v>0.02272250033254226</v>
+      </c>
+      <c r="G60">
+        <v>0.0239858572908495</v>
+      </c>
+      <c r="H60">
+        <v>-0.1120101011927229</v>
+      </c>
+      <c r="I60">
+        <v>0.1341793160760268</v>
+      </c>
+      <c r="J60">
+        <v>0.1159368657732172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.0789517852403889</v>
+        <v>-0.08801032823247663</v>
       </c>
       <c r="C61">
-        <v>-0.01754400765782958</v>
+        <v>0.03312240908835824</v>
       </c>
       <c r="D61">
-        <v>-0.05172899632787049</v>
+        <v>-0.04868611018694718</v>
       </c>
       <c r="E61">
-        <v>0.008429110900447323</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.004223432574279606</v>
+      </c>
+      <c r="F61">
+        <v>-0.02431235130160695</v>
+      </c>
+      <c r="G61">
+        <v>-0.05014147714555345</v>
+      </c>
+      <c r="H61">
+        <v>0.04732418140746295</v>
+      </c>
+      <c r="I61">
+        <v>-0.04858177537358348</v>
+      </c>
+      <c r="J61">
+        <v>-0.07236216381215696</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>-0.1514375041315749</v>
+        <v>-0.1482318555534513</v>
       </c>
       <c r="C62">
-        <v>-0.04148773104327103</v>
+        <v>0.03079319531012813</v>
       </c>
       <c r="D62">
-        <v>-0.008241169962754379</v>
+        <v>-0.02464377930244671</v>
       </c>
       <c r="E62">
-        <v>0.005343550892842683</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>0.03193002673220785</v>
+      </c>
+      <c r="F62">
+        <v>0.046521721182483</v>
+      </c>
+      <c r="G62">
+        <v>-0.03996805266095181</v>
+      </c>
+      <c r="H62">
+        <v>0.2243012277568752</v>
+      </c>
+      <c r="I62">
+        <v>0.08902114369894946</v>
+      </c>
+      <c r="J62">
+        <v>0.06599336197307112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.05751926660913188</v>
+        <v>-0.05234643918491815</v>
       </c>
       <c r="C63">
-        <v>0.006227575728649458</v>
+        <v>0.02255688792254857</v>
       </c>
       <c r="D63">
-        <v>-0.03747415204000278</v>
+        <v>-0.01721163564680485</v>
       </c>
       <c r="E63">
-        <v>0.005891570342498881</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.02506320065289962</v>
+      </c>
+      <c r="F63">
+        <v>-0.01357196193813866</v>
+      </c>
+      <c r="G63">
+        <v>-0.05354283330319284</v>
+      </c>
+      <c r="H63">
+        <v>0.01570331048025416</v>
+      </c>
+      <c r="I63">
+        <v>-0.04224017472354331</v>
+      </c>
+      <c r="J63">
+        <v>0.03351419951736014</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.1003670162390346</v>
+        <v>-0.1078036531423111</v>
       </c>
       <c r="C64">
-        <v>-0.02115902880118944</v>
+        <v>0.01831146550692222</v>
       </c>
       <c r="D64">
-        <v>-0.04240961103665482</v>
+        <v>-0.04427872290672243</v>
       </c>
       <c r="E64">
-        <v>0.03721889621756626</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.008042648115760543</v>
+      </c>
+      <c r="F64">
+        <v>-0.05757193385374097</v>
+      </c>
+      <c r="G64">
+        <v>-0.05180867759959139</v>
+      </c>
+      <c r="H64">
+        <v>-0.01770836175653135</v>
+      </c>
+      <c r="I64">
+        <v>-0.0591990770838367</v>
+      </c>
+      <c r="J64">
+        <v>-0.02087469348960861</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>-0.1261663656428582</v>
+        <v>-0.1333458469431382</v>
       </c>
       <c r="C65">
-        <v>-0.01221924732973705</v>
+        <v>0.004699532493056207</v>
       </c>
       <c r="D65">
-        <v>-0.04146402521766759</v>
+        <v>-0.03591316843802989</v>
       </c>
       <c r="E65">
-        <v>0.05601685088695481</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.007997085750336192</v>
+      </c>
+      <c r="F65">
+        <v>-0.02104628930480776</v>
+      </c>
+      <c r="G65">
+        <v>-0.07446002612247539</v>
+      </c>
+      <c r="H65">
+        <v>-0.2106928786392154</v>
+      </c>
+      <c r="I65">
+        <v>-0.03915850916087883</v>
+      </c>
+      <c r="J65">
+        <v>0.6447689216693857</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.157447563896644</v>
+        <v>-0.1494026718386237</v>
       </c>
       <c r="C66">
-        <v>0.008513952279509412</v>
+        <v>0.0902735427753542</v>
       </c>
       <c r="D66">
-        <v>-0.093976547365076</v>
+        <v>-0.05433521682041424</v>
       </c>
       <c r="E66">
-        <v>0.01966821595188197</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.003824590610493242</v>
+      </c>
+      <c r="F66">
+        <v>-0.01474372777666598</v>
+      </c>
+      <c r="G66">
+        <v>-0.08746139021908444</v>
+      </c>
+      <c r="H66">
+        <v>0.03225072258575382</v>
+      </c>
+      <c r="I66">
+        <v>-0.1193003909201201</v>
+      </c>
+      <c r="J66">
+        <v>-0.2000395701925511</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.09778371385996174</v>
+        <v>-0.09924164450754917</v>
       </c>
       <c r="C67">
-        <v>0.008799389218211398</v>
+        <v>0.03475733416560217</v>
       </c>
       <c r="D67">
-        <v>0.0114692533028502</v>
+        <v>0.01635701144365996</v>
       </c>
       <c r="E67">
-        <v>-0.003441657266500381</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.01566976851809005</v>
+      </c>
+      <c r="F67">
+        <v>-0.008829419224764318</v>
+      </c>
+      <c r="G67">
+        <v>0.01500402168226913</v>
+      </c>
+      <c r="H67">
+        <v>0.008976673279822262</v>
+      </c>
+      <c r="I67">
+        <v>0.03834065253806102</v>
+      </c>
+      <c r="J67">
+        <v>-0.04231174810293788</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.04734211866566564</v>
+        <v>-0.0746678520234688</v>
       </c>
       <c r="C68">
-        <v>-0.177456546314615</v>
+        <v>-0.2807977843215493</v>
       </c>
       <c r="D68">
-        <v>0.1844471828861788</v>
+        <v>0.0221334228821439</v>
       </c>
       <c r="E68">
-        <v>0.0450021074151074</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.03287478751179113</v>
+      </c>
+      <c r="F68">
+        <v>-0.03717900226555422</v>
+      </c>
+      <c r="G68">
+        <v>0.002853811077557541</v>
+      </c>
+      <c r="H68">
+        <v>0.01893395217430778</v>
+      </c>
+      <c r="I68">
+        <v>-0.02820775517794029</v>
+      </c>
+      <c r="J68">
+        <v>0.03439272490202304</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.06898499678408379</v>
+        <v>-0.05794761208227149</v>
       </c>
       <c r="C69">
-        <v>0.002335488056619556</v>
+        <v>0.01889079811438675</v>
       </c>
       <c r="D69">
-        <v>-0.01320784151865517</v>
+        <v>0.007599645945758795</v>
       </c>
       <c r="E69">
-        <v>0.007554110760572171</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02231696298625616</v>
+      </c>
+      <c r="F69">
+        <v>0.002617265269499148</v>
+      </c>
+      <c r="G69">
+        <v>-0.0009596612819849867</v>
+      </c>
+      <c r="H69">
+        <v>0.03064964901431018</v>
+      </c>
+      <c r="I69">
+        <v>-0.01540450467872636</v>
+      </c>
+      <c r="J69">
+        <v>-0.001581018254887827</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B70">
-        <v>-0.01155303682478894</v>
+        <v>-0.0336251570267924</v>
       </c>
       <c r="C70">
-        <v>-0.006754010170246023</v>
+        <v>-0.001875890775135068</v>
       </c>
       <c r="D70">
-        <v>0.002779991094055972</v>
+        <v>0.001710461742579395</v>
       </c>
       <c r="E70">
-        <v>-0.01119965146584869</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>0.03172767695681628</v>
+      </c>
+      <c r="F70">
+        <v>0.02143696217247306</v>
+      </c>
+      <c r="G70">
+        <v>0.006555478325797387</v>
+      </c>
+      <c r="H70">
+        <v>-0.04382397651661041</v>
+      </c>
+      <c r="I70">
+        <v>-0.006092293633165322</v>
+      </c>
+      <c r="J70">
+        <v>-0.03826673083168099</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.0430881803790833</v>
+        <v>-0.08077884359133794</v>
       </c>
       <c r="C71">
-        <v>-0.1955094481138085</v>
+        <v>-0.300773933059064</v>
       </c>
       <c r="D71">
-        <v>0.2097516887379712</v>
+        <v>0.01880419689302399</v>
       </c>
       <c r="E71">
-        <v>0.08754957743576779</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.01692780033353278</v>
+      </c>
+      <c r="F71">
+        <v>-0.05426434152429966</v>
+      </c>
+      <c r="G71">
+        <v>-0.003950686159899905</v>
+      </c>
+      <c r="H71">
+        <v>0.01839103761032678</v>
+      </c>
+      <c r="I71">
+        <v>-0.02777098918255522</v>
+      </c>
+      <c r="J71">
+        <v>0.01091808476766543</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.145155152555971</v>
+        <v>-0.1366169883930099</v>
       </c>
       <c r="C72">
-        <v>-0.04599173394541219</v>
+        <v>-0.003026593853249762</v>
       </c>
       <c r="D72">
-        <v>0.008459188358633879</v>
+        <v>0.003038153892629989</v>
       </c>
       <c r="E72">
-        <v>-0.2155974061920044</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.06320584840817024</v>
+      </c>
+      <c r="F72">
+        <v>0.1590555714274376</v>
+      </c>
+      <c r="G72">
+        <v>-0.1240774911857892</v>
+      </c>
+      <c r="H72">
+        <v>0.01194659803150849</v>
+      </c>
+      <c r="I72">
+        <v>0.01707280011449375</v>
+      </c>
+      <c r="J72">
+        <v>0.1263307444305448</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2691090894401228</v>
+        <v>-0.2629680550859759</v>
       </c>
       <c r="C73">
-        <v>-0.05703371111958944</v>
+        <v>0.08317863634229475</v>
       </c>
       <c r="D73">
-        <v>-0.09547713892591966</v>
+        <v>-0.07570692030178328</v>
       </c>
       <c r="E73">
-        <v>0.05945781602685198</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.3022992413856646</v>
+      </c>
+      <c r="F73">
+        <v>0.1104745785251614</v>
+      </c>
+      <c r="G73">
+        <v>0.2092932618610071</v>
+      </c>
+      <c r="H73">
+        <v>-0.2588817400523879</v>
+      </c>
+      <c r="I73">
+        <v>0.1324686276169406</v>
+      </c>
+      <c r="J73">
+        <v>-0.199479902318031</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.08363124041521598</v>
+        <v>-0.09119517240045105</v>
       </c>
       <c r="C74">
-        <v>-0.05300879090210857</v>
+        <v>0.02237096582223048</v>
       </c>
       <c r="D74">
-        <v>-0.0365308244997293</v>
+        <v>-0.05655366816148884</v>
       </c>
       <c r="E74">
-        <v>0.01225104365289444</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01141003191064054</v>
+      </c>
+      <c r="F74">
+        <v>0.009255774954034434</v>
+      </c>
+      <c r="G74">
+        <v>0.02262311679006934</v>
+      </c>
+      <c r="H74">
+        <v>0.1419336735034501</v>
+      </c>
+      <c r="I74">
+        <v>-0.007653096654996456</v>
+      </c>
+      <c r="J74">
+        <v>0.003715941295874132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.1137773501506624</v>
+        <v>-0.1036268874187572</v>
       </c>
       <c r="C75">
-        <v>-0.02008615987686012</v>
+        <v>0.02438621025960389</v>
       </c>
       <c r="D75">
-        <v>-0.01573950366797412</v>
+        <v>-0.000264111872126522</v>
       </c>
       <c r="E75">
-        <v>0.02901855798452292</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.002128813110499185</v>
+      </c>
+      <c r="F75">
+        <v>0.00627884186662681</v>
+      </c>
+      <c r="G75">
+        <v>0.006026356169996463</v>
+      </c>
+      <c r="H75">
+        <v>0.1187462397688657</v>
+      </c>
+      <c r="I75">
+        <v>0.05158350383533694</v>
+      </c>
+      <c r="J75">
+        <v>0.01772243906771526</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.1370103222201585</v>
+        <v>-0.1330930808286079</v>
       </c>
       <c r="C76">
-        <v>-0.0406237327574279</v>
+        <v>0.04540346300501254</v>
       </c>
       <c r="D76">
-        <v>-0.05661201465548863</v>
+        <v>-0.06162083806832395</v>
       </c>
       <c r="E76">
-        <v>0.04283175068752416</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.01695552990201439</v>
+      </c>
+      <c r="F76">
+        <v>-0.01602307705704362</v>
+      </c>
+      <c r="G76">
+        <v>-0.02897002534259709</v>
+      </c>
+      <c r="H76">
+        <v>0.2774398715752637</v>
+      </c>
+      <c r="I76">
+        <v>0.04962857359936643</v>
+      </c>
+      <c r="J76">
+        <v>0.01900344321382577</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.1318268110403606</v>
+        <v>-0.09782131488986151</v>
       </c>
       <c r="C77">
-        <v>0.07219379421870407</v>
+        <v>0.05356398591411685</v>
       </c>
       <c r="D77">
-        <v>-0.03429148093270919</v>
+        <v>0.07774320541446704</v>
       </c>
       <c r="E77">
-        <v>0.05727980805490247</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.1151992759466512</v>
+      </c>
+      <c r="F77">
+        <v>-0.1501563453705964</v>
+      </c>
+      <c r="G77">
+        <v>-0.7085756204449138</v>
+      </c>
+      <c r="H77">
+        <v>-0.2793815269639078</v>
+      </c>
+      <c r="I77">
+        <v>0.4428338144412726</v>
+      </c>
+      <c r="J77">
+        <v>-0.2105958276703602</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.113868664152105</v>
+        <v>-0.1592745255067116</v>
       </c>
       <c r="C78">
-        <v>0.01951200310437965</v>
+        <v>0.06310496762795649</v>
       </c>
       <c r="D78">
-        <v>-0.07845639819804105</v>
+        <v>-0.06346841734182317</v>
       </c>
       <c r="E78">
-        <v>0.0004963075337861675</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.09141033451465154</v>
+      </c>
+      <c r="F78">
+        <v>-0.1167203114397143</v>
+      </c>
+      <c r="G78">
+        <v>0.02126076056469478</v>
+      </c>
+      <c r="H78">
+        <v>-0.131229149716459</v>
+      </c>
+      <c r="I78">
+        <v>-0.04013830702681698</v>
+      </c>
+      <c r="J78">
+        <v>0.1274496386090393</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>-0.147702569783815</v>
+        <v>-0.144728424639999</v>
       </c>
       <c r="C79">
-        <v>-0.03247182153775559</v>
+        <v>0.03714099244196013</v>
       </c>
       <c r="D79">
-        <v>-0.0559330688528682</v>
+        <v>-0.04243745459478662</v>
       </c>
       <c r="E79">
-        <v>0.02608919885955741</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.01973777783604043</v>
+      </c>
+      <c r="F79">
+        <v>0.002937588250785036</v>
+      </c>
+      <c r="G79">
+        <v>-0.04973974497271536</v>
+      </c>
+      <c r="H79">
+        <v>0.196106389369025</v>
+      </c>
+      <c r="I79">
+        <v>0.05988948015424012</v>
+      </c>
+      <c r="J79">
+        <v>0.05650338331718312</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.04020812367759809</v>
+        <v>-0.04282140887820001</v>
       </c>
       <c r="C80">
-        <v>0.005682563893602458</v>
+        <v>0.01191917553667817</v>
       </c>
       <c r="D80">
-        <v>-0.02134319776472602</v>
+        <v>-0.01308101503099351</v>
       </c>
       <c r="E80">
-        <v>0.0005620186048383703</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.04772714814697381</v>
+      </c>
+      <c r="F80">
+        <v>0.01676932376022299</v>
+      </c>
+      <c r="G80">
+        <v>-0.01579236080963754</v>
+      </c>
+      <c r="H80">
+        <v>-0.02736288373564499</v>
+      </c>
+      <c r="I80">
+        <v>-0.1164779632426628</v>
+      </c>
+      <c r="J80">
+        <v>0.02762360340631932</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.1312881853545743</v>
+        <v>-0.1277777646467415</v>
       </c>
       <c r="C81">
-        <v>-0.03975072676846078</v>
+        <v>0.01839824326391168</v>
       </c>
       <c r="D81">
-        <v>-0.03990019870469964</v>
+        <v>-0.03834479303231694</v>
       </c>
       <c r="E81">
-        <v>0.02687145681400592</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.01700149862285792</v>
+      </c>
+      <c r="F81">
+        <v>-0.0074018250894243</v>
+      </c>
+      <c r="G81">
+        <v>-0.01775365749873041</v>
+      </c>
+      <c r="H81">
+        <v>0.15068722627646</v>
+      </c>
+      <c r="I81">
+        <v>0.01410881661846296</v>
+      </c>
+      <c r="J81">
+        <v>-0.02432764159722552</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>-0.1233509378572292</v>
+        <v>-0.1207246083547934</v>
       </c>
       <c r="C82">
-        <v>-0.02609126265605507</v>
+        <v>0.02594735042113211</v>
       </c>
       <c r="D82">
-        <v>-0.03844564217047235</v>
+        <v>-0.03528146335872429</v>
       </c>
       <c r="E82">
-        <v>0.05889037351741144</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.0388629461228332</v>
+      </c>
+      <c r="F82">
+        <v>-0.008688711610305126</v>
+      </c>
+      <c r="G82">
+        <v>0.008336674491002583</v>
+      </c>
+      <c r="H82">
+        <v>0.2755860527903129</v>
+      </c>
+      <c r="I82">
+        <v>0.05851165745592198</v>
+      </c>
+      <c r="J82">
+        <v>-0.03113951988703401</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.05370213068875754</v>
+        <v>-0.07462827639921724</v>
       </c>
       <c r="C83">
-        <v>0.02450415531061649</v>
+        <v>0.02758694048503621</v>
       </c>
       <c r="D83">
-        <v>0.02014938320553789</v>
+        <v>0.02366818542845227</v>
       </c>
       <c r="E83">
-        <v>0.01717933305881764</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.05125810131356281</v>
+      </c>
+      <c r="F83">
+        <v>-0.008024199827670395</v>
+      </c>
+      <c r="G83">
+        <v>0.05323849130961635</v>
+      </c>
+      <c r="H83">
+        <v>-0.06982529366249624</v>
+      </c>
+      <c r="I83">
+        <v>-0.06563685573952636</v>
+      </c>
+      <c r="J83">
+        <v>-0.04596568747068348</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>-0.04462092860511512</v>
+        <v>-0.03612461878732631</v>
       </c>
       <c r="C84">
-        <v>-0.003123481449148654</v>
+        <v>0.04159086194581046</v>
       </c>
       <c r="D84">
-        <v>-0.03864418546712246</v>
+        <v>-0.0200645618822758</v>
       </c>
       <c r="E84">
-        <v>-0.05633233522793789</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.04847229544887335</v>
+      </c>
+      <c r="F84">
+        <v>0.02493867660401639</v>
+      </c>
+      <c r="G84">
+        <v>0.03068881318703545</v>
+      </c>
+      <c r="H84">
+        <v>0.01961217440974901</v>
+      </c>
+      <c r="I84">
+        <v>-0.1187015423675487</v>
+      </c>
+      <c r="J84">
+        <v>-0.008678355025438737</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.1167232886082262</v>
+        <v>-0.1224876274531291</v>
       </c>
       <c r="C85">
-        <v>0.002012584628325273</v>
+        <v>0.03455067723369522</v>
       </c>
       <c r="D85">
-        <v>-0.03969660406597399</v>
+        <v>-0.0173589728630838</v>
       </c>
       <c r="E85">
-        <v>0.07437563301831981</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.01864997677844723</v>
+      </c>
+      <c r="F85">
+        <v>-0.03601971563585569</v>
+      </c>
+      <c r="G85">
+        <v>-0.01730122374262195</v>
+      </c>
+      <c r="H85">
+        <v>0.1917286334463406</v>
+      </c>
+      <c r="I85">
+        <v>0.0326310677887677</v>
+      </c>
+      <c r="J85">
+        <v>0.0600350818950388</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.06502540617364273</v>
+        <v>-0.06126837418133781</v>
       </c>
       <c r="C86">
-        <v>0.02532946730575484</v>
+        <v>0.03351233146839465</v>
       </c>
       <c r="D86">
-        <v>-0.06144155838679333</v>
+        <v>-0.007352743633967662</v>
       </c>
       <c r="E86">
-        <v>0.01885485003927431</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.02122338738756931</v>
+      </c>
+      <c r="F86">
+        <v>-0.03563504821371833</v>
+      </c>
+      <c r="G86">
+        <v>0.01589717838775873</v>
+      </c>
+      <c r="H86">
+        <v>-0.05315539202030114</v>
+      </c>
+      <c r="I86">
+        <v>0.06617129496675056</v>
+      </c>
+      <c r="J86">
+        <v>0.06216718166666742</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.1233294163298148</v>
+        <v>-0.1279904711034254</v>
       </c>
       <c r="C87">
-        <v>-0.01870437308688352</v>
+        <v>0.06563777382625123</v>
       </c>
       <c r="D87">
-        <v>-0.1202063348773622</v>
+        <v>-0.07558750951009956</v>
       </c>
       <c r="E87">
-        <v>0.02518906259764097</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.06629171496432763</v>
+      </c>
+      <c r="F87">
+        <v>-0.06237541132323269</v>
+      </c>
+      <c r="G87">
+        <v>-0.1585510274062432</v>
+      </c>
+      <c r="H87">
+        <v>-0.07822095880346139</v>
+      </c>
+      <c r="I87">
+        <v>0.02281257212804113</v>
+      </c>
+      <c r="J87">
+        <v>-0.02066792858086515</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.05989740078944111</v>
+        <v>-0.06457400995691186</v>
       </c>
       <c r="C88">
-        <v>0.002743929989862589</v>
+        <v>0.03835615944491644</v>
       </c>
       <c r="D88">
-        <v>-0.03501166334030163</v>
+        <v>-0.02563116383200193</v>
       </c>
       <c r="E88">
-        <v>0.008902065321069678</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01609046606507296</v>
+      </c>
+      <c r="F88">
+        <v>-0.009630574978930042</v>
+      </c>
+      <c r="G88">
+        <v>-0.02542723077087904</v>
+      </c>
+      <c r="H88">
+        <v>0.02244983897493404</v>
+      </c>
+      <c r="I88">
+        <v>-0.04672986748060143</v>
+      </c>
+      <c r="J88">
+        <v>-0.02100670964647904</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.07089639566863198</v>
+        <v>-0.1269550438751431</v>
       </c>
       <c r="C89">
-        <v>-0.2301246433846764</v>
+        <v>-0.3776976241578538</v>
       </c>
       <c r="D89">
-        <v>0.2259232815890061</v>
+        <v>0.01299103337498609</v>
       </c>
       <c r="E89">
-        <v>0.1099716205384081</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.002387027926077008</v>
+      </c>
+      <c r="F89">
+        <v>-0.09833627555800105</v>
+      </c>
+      <c r="G89">
+        <v>0.01438409071594113</v>
+      </c>
+      <c r="H89">
+        <v>-0.002379035446476644</v>
+      </c>
+      <c r="I89">
+        <v>-0.07630050614869278</v>
+      </c>
+      <c r="J89">
+        <v>-0.07667644085283574</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.06297621395098607</v>
+        <v>-0.09254627991901565</v>
       </c>
       <c r="C90">
-        <v>-0.1874593556660977</v>
+        <v>-0.2825739559451019</v>
       </c>
       <c r="D90">
-        <v>0.2119809783850078</v>
+        <v>0.0315204908582185</v>
       </c>
       <c r="E90">
-        <v>0.06223288761903117</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.01212561756244777</v>
+      </c>
+      <c r="F90">
+        <v>-0.04618827048996139</v>
+      </c>
+      <c r="G90">
+        <v>-0.01991315934759023</v>
+      </c>
+      <c r="H90">
+        <v>-0.03983129846847784</v>
+      </c>
+      <c r="I90">
+        <v>-0.07525157680668935</v>
+      </c>
+      <c r="J90">
+        <v>-0.04684381804157637</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.1029608454171788</v>
+        <v>-0.09284062841063703</v>
       </c>
       <c r="C91">
-        <v>-0.02782324052764857</v>
+        <v>0.02761921532614574</v>
       </c>
       <c r="D91">
-        <v>-0.03165974470426892</v>
+        <v>-0.02101327177999506</v>
       </c>
       <c r="E91">
-        <v>0.02168339457853465</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.007759446049086074</v>
+      </c>
+      <c r="F91">
+        <v>0.005999959517573761</v>
+      </c>
+      <c r="G91">
+        <v>0.01357198805749253</v>
+      </c>
+      <c r="H91">
+        <v>0.08195751347499264</v>
+      </c>
+      <c r="I91">
+        <v>0.0406640375153642</v>
+      </c>
+      <c r="J91">
+        <v>-0.005883368808198154</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.05529679278313489</v>
+        <v>-0.09350667819454199</v>
       </c>
       <c r="C92">
-        <v>-0.235229627829686</v>
+        <v>-0.3352040250706647</v>
       </c>
       <c r="D92">
-        <v>0.2343958061808623</v>
+        <v>0.01758740415838272</v>
       </c>
       <c r="E92">
-        <v>0.08867022294157756</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.01728508695093096</v>
+      </c>
+      <c r="F92">
+        <v>-0.05816045030241948</v>
+      </c>
+      <c r="G92">
+        <v>-0.003894403349117637</v>
+      </c>
+      <c r="H92">
+        <v>0.01620767478459922</v>
+      </c>
+      <c r="I92">
+        <v>-0.02337286269164814</v>
+      </c>
+      <c r="J92">
+        <v>-0.02564523192262648</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.04856632049700148</v>
+        <v>-0.09186987583049354</v>
       </c>
       <c r="C93">
-        <v>-0.2172938860709756</v>
+        <v>-0.3215031947365372</v>
       </c>
       <c r="D93">
-        <v>0.2174785070900338</v>
+        <v>0.01212639435752944</v>
       </c>
       <c r="E93">
-        <v>0.05994452540605374</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.005544130581972293</v>
+      </c>
+      <c r="F93">
+        <v>-0.03162209611315028</v>
+      </c>
+      <c r="G93">
+        <v>-0.002805280485022829</v>
+      </c>
+      <c r="H93">
+        <v>-0.007302701978967497</v>
+      </c>
+      <c r="I93">
+        <v>-0.01300175197232841</v>
+      </c>
+      <c r="J93">
+        <v>0.003642365099860452</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.1254819027552558</v>
+        <v>-0.1231896889736287</v>
       </c>
       <c r="C94">
-        <v>0.01223946920452479</v>
+        <v>0.0483227843849942</v>
       </c>
       <c r="D94">
-        <v>-0.05497957364668537</v>
+        <v>-0.01319308861214996</v>
       </c>
       <c r="E94">
-        <v>0.04255469284881289</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.006895168909875649</v>
+      </c>
+      <c r="F94">
+        <v>-0.02326186845971241</v>
+      </c>
+      <c r="G94">
+        <v>0.05328751674869143</v>
+      </c>
+      <c r="H94">
+        <v>0.1189602937800147</v>
+      </c>
+      <c r="I94">
+        <v>0.0357518344631203</v>
+      </c>
+      <c r="J94">
+        <v>0.0170667238495965</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.1295421783405007</v>
+        <v>-0.1402089240121584</v>
       </c>
       <c r="C95">
-        <v>0.02717360403187335</v>
+        <v>0.06398817566014564</v>
       </c>
       <c r="D95">
-        <v>-0.08647081889400855</v>
+        <v>-0.02266215256739273</v>
       </c>
       <c r="E95">
-        <v>0.05573692218366418</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.003690595677771436</v>
+      </c>
+      <c r="F95">
+        <v>-0.05296900123531226</v>
+      </c>
+      <c r="G95">
+        <v>-0.02881836325726991</v>
+      </c>
+      <c r="H95">
+        <v>-0.1450391077442804</v>
+      </c>
+      <c r="I95">
+        <v>-0.06869854431840301</v>
+      </c>
+      <c r="J95">
+        <v>0.03161916563992402</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,61 +3766,121 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>-0.2408697672888719</v>
+        <v>-0.1813159608798458</v>
       </c>
       <c r="C97">
-        <v>-0.1266192500267621</v>
+        <v>-0.04144687564562262</v>
       </c>
       <c r="D97">
-        <v>0.07437638061463571</v>
+        <v>0.08039907316791423</v>
       </c>
       <c r="E97">
-        <v>-0.8973221833245112</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.4649845087760834</v>
+      </c>
+      <c r="F97">
+        <v>0.8101421833653322</v>
+      </c>
+      <c r="G97">
+        <v>-0.07773789927720262</v>
+      </c>
+      <c r="H97">
+        <v>-0.04182632581334608</v>
+      </c>
+      <c r="I97">
+        <v>-0.07872217427979251</v>
+      </c>
+      <c r="J97">
+        <v>-0.02440637166074995</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.2713074612633487</v>
+        <v>-0.284089987985843</v>
       </c>
       <c r="C98">
-        <v>-0.01607997444462703</v>
+        <v>0.06571012258387564</v>
       </c>
       <c r="D98">
-        <v>-0.03227587624105497</v>
+        <v>-0.0183961098349464</v>
       </c>
       <c r="E98">
-        <v>0.03293625480509384</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.2555434715307637</v>
+      </c>
+      <c r="F98">
+        <v>0.1587740467918277</v>
+      </c>
+      <c r="G98">
+        <v>0.2934523145651451</v>
+      </c>
+      <c r="H98">
+        <v>-0.2187488091031652</v>
+      </c>
+      <c r="I98">
+        <v>0.2114308053660598</v>
+      </c>
+      <c r="J98">
+        <v>-0.180023761088017</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>-0.3147408916514322</v>
+        <v>-0.2001588191336396</v>
       </c>
       <c r="C99">
-        <v>0.7136539708175561</v>
+        <v>0.1373022818901463</v>
       </c>
       <c r="D99">
-        <v>0.5907194388987349</v>
+        <v>0.9331719236189989</v>
       </c>
       <c r="E99">
-        <v>0.03079287164630556</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>0.09803533824507078</v>
+      </c>
+      <c r="F99">
+        <v>-0.08214476082773219</v>
+      </c>
+      <c r="G99">
+        <v>0.02682976013501075</v>
+      </c>
+      <c r="H99">
+        <v>0.08671667073212748</v>
+      </c>
+      <c r="I99">
+        <v>-0.03526829070298779</v>
+      </c>
+      <c r="J99">
+        <v>0.05288857402520916</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,27 +3894,57 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.05302336609743445</v>
+        <v>-0.05379841352595473</v>
       </c>
       <c r="C101">
-        <v>-0.03365494812473518</v>
+        <v>0.006566308758974462</v>
       </c>
       <c r="D101">
-        <v>-0.03179808834013312</v>
+        <v>-0.04176595801574124</v>
       </c>
       <c r="E101">
-        <v>0.02413418709282748</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.0180160025325399</v>
+      </c>
+      <c r="F101">
+        <v>-0.0339059106259589</v>
+      </c>
+      <c r="G101">
+        <v>-0.02946063417892094</v>
+      </c>
+      <c r="H101">
+        <v>0.06395203775927367</v>
+      </c>
+      <c r="I101">
+        <v>-0.04621052413340063</v>
+      </c>
+      <c r="J101">
+        <v>0.008835210629555241</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2428,10 +3958,25 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3990,25 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +4020,21 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
